--- a/biology/Médecine/Nettoyage/Nettoyage.xlsx
+++ b/biology/Médecine/Nettoyage/Nettoyage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs méthodes de nettoyageSe laver les mains (partie de l'hygiène)Machine de nettoyage à secNettoyage par ultrasonsNettoyage au dioxyde de carbone dans un environnement aérospatial
 Le nettoyage est le processus d'élimination des substances indésirables, telles que la saleté, les agents infectieux et autres impuretés, d'un objet ou d'un environnement. Le nettoyage se produit dans de nombreux contextes différents et utilise de nombreuses méthodes différentes. Plusieurs métiers sont consacrés au nettoyage. Le nettoyage a différents objectifs dont la propreté et l'hygiène, etc.
@@ -512,7 +524,9 @@
           <t>Contextes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le nettoyage a lieu dans divers contextes commerciaux, domestiques, personnels et environnementaux, qui diffèrent par leur échelle et leurs exigences.
 Nettoyage commercial (en)
@@ -547,7 +561,9 @@
           <t>Méthodes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le nettoyage est généralement réalisé par une action mécanique et/ou une action de solvant ; de nombreuses méthodes reposent sur les deux processus.
 Lavage généralement fait avec de l'eau et souvent une sorte de savon ou de détergent
@@ -592,11 +608,48 @@
           <t>Nettoyage par article</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Certains articles et matériaux nécessitent des techniques de nettoyage spécialisées, en raison de leur forme, de leur emplacement ou des propriétés matérielles de l'objet et des contaminants.
-Bâtiments et infrastructures
-Nettoyage des plages (en)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains articles et matériaux nécessitent des techniques de nettoyage spécialisées, en raison de leur forme, de leur emplacement ou des propriétés matérielles de l'objet et des contaminants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nettoyage</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nettoyage</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nettoyage par article</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bâtiments et infrastructures</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nettoyage des plages (en)
 Nettoyage de tapis (en)
 Nettoyage de cheminée (en)
 Nettoyage de scène du crime (en)
@@ -605,9 +658,43 @@
 Élimination des graffitis (en)
 Nettoyage de toiture (en)
 Nettoyage des silos
-Nettoyage des rues
-Autres éléments
-Nettoyage des monnaies (en)
+Nettoyage des rues</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nettoyage</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nettoyage</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nettoyage par article</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres éléments</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nettoyage des monnaies (en)
 Nettoyage de bijoux (en)
 Blanchisserie, lavage des vêtements et autres textiles
 Nettoyage de pièces (en), dans l'industrie
@@ -617,31 +704,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Nettoyage</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nettoyage</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Emplois du nettoyage et professions impliquant l'entretien et le nettoyage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Plusieurs professions impliquent le nettoyage, soit dans leur intégralité, soit entre autres tâches.
 Parmi les métiers du nettoyage, se trouvent notamment :
